--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H2">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>2283.134082982199</v>
+        <v>6046.067596308495</v>
       </c>
       <c r="R2">
-        <v>20548.20674683979</v>
+        <v>54414.60836677645</v>
       </c>
       <c r="S2">
-        <v>0.02168397653449508</v>
+        <v>0.04666395775588195</v>
       </c>
       <c r="T2">
-        <v>0.02168397653449508</v>
+        <v>0.04666395775588195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H3">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>16295.38444419332</v>
+        <v>23774.25684394195</v>
       </c>
       <c r="R3">
-        <v>146658.4599977398</v>
+        <v>213968.3115954776</v>
       </c>
       <c r="S3">
-        <v>0.1547647755522639</v>
+        <v>0.1834913188401257</v>
       </c>
       <c r="T3">
-        <v>0.154764775552264</v>
+        <v>0.1834913188401257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H4">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>15935.32546524621</v>
+        <v>22005.24467335565</v>
       </c>
       <c r="R4">
-        <v>143417.9291872159</v>
+        <v>198047.2020602009</v>
       </c>
       <c r="S4">
-        <v>0.1513451295013735</v>
+        <v>0.1698379635173566</v>
       </c>
       <c r="T4">
-        <v>0.1513451295013736</v>
+        <v>0.1698379635173567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H5">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>4648.234666334115</v>
+        <v>5715.605123347525</v>
       </c>
       <c r="R5">
-        <v>41834.11199700704</v>
+        <v>51440.44611012773</v>
       </c>
       <c r="S5">
-        <v>0.04414642669604497</v>
+        <v>0.04411342608674046</v>
       </c>
       <c r="T5">
-        <v>0.04414642669604497</v>
+        <v>0.04411342608674046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H6">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>6917.615209626557</v>
+        <v>11013.11664517912</v>
       </c>
       <c r="R6">
-        <v>62258.53688663901</v>
+        <v>99118.04980661209</v>
       </c>
       <c r="S6">
-        <v>0.06569977952599204</v>
+        <v>0.08499997753994955</v>
       </c>
       <c r="T6">
-        <v>0.06569977952599204</v>
+        <v>0.08499997753994955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H7">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>18209.055335276</v>
+        <v>29840.62739564349</v>
       </c>
       <c r="R7">
-        <v>163881.498017484</v>
+        <v>268565.6465607915</v>
       </c>
       <c r="S7">
-        <v>0.1729397898916678</v>
+        <v>0.2303119761759725</v>
       </c>
       <c r="T7">
-        <v>0.1729397898916678</v>
+        <v>0.2303119761759725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
         <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>566.6673514700059</v>
+        <v>1028.554795039172</v>
       </c>
       <c r="R8">
-        <v>5100.006163230052</v>
+        <v>9256.993155352548</v>
       </c>
       <c r="S8">
-        <v>0.005381900977138487</v>
+        <v>0.007938455325015317</v>
       </c>
       <c r="T8">
-        <v>0.005381900977138487</v>
+        <v>0.007938455325015319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
         <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
-        <v>4044.467827362619</v>
+        <v>4044.467827362618</v>
       </c>
       <c r="R9">
-        <v>36400.21044626357</v>
+        <v>36400.21044626356</v>
       </c>
       <c r="S9">
-        <v>0.03841217478935734</v>
+        <v>0.03121547565169548</v>
       </c>
       <c r="T9">
-        <v>0.03841217478935734</v>
+        <v>0.03121547565169548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
         <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>3955.102218266878</v>
+        <v>3743.524127750306</v>
       </c>
       <c r="R10">
-        <v>35595.9199644019</v>
+        <v>33691.71714975276</v>
       </c>
       <c r="S10">
-        <v>0.03756342841696217</v>
+        <v>0.02889277186747348</v>
       </c>
       <c r="T10">
-        <v>0.03756342841696217</v>
+        <v>0.02889277186747349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
         <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>1153.678553973545</v>
+        <v>972.3366407214734</v>
       </c>
       <c r="R11">
-        <v>10383.10698576191</v>
+        <v>8751.02976649326</v>
       </c>
       <c r="S11">
-        <v>0.01095701688270386</v>
+        <v>0.007504559815842303</v>
       </c>
       <c r="T11">
-        <v>0.01095701688270386</v>
+        <v>0.007504559815842303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
         <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>1716.932316216609</v>
+        <v>1873.54735177637</v>
       </c>
       <c r="R12">
-        <v>15452.39084594948</v>
+        <v>16861.92616598733</v>
       </c>
       <c r="S12">
-        <v>0.01630649742985222</v>
+        <v>0.01446016490624696</v>
       </c>
       <c r="T12">
-        <v>0.01630649742985222</v>
+        <v>0.01446016490624696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
         <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>4519.435470970577</v>
+        <v>5076.476553703474</v>
       </c>
       <c r="R13">
-        <v>40674.91923873519</v>
+        <v>45688.28898333127</v>
       </c>
       <c r="S13">
-        <v>0.0429231613824823</v>
+        <v>0.03918058865160214</v>
       </c>
       <c r="T13">
-        <v>0.04292316138248231</v>
+        <v>0.03918058865160214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H14">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>6.468997398075111</v>
+        <v>12.708327251189</v>
       </c>
       <c r="R14">
-        <v>58.22097658267599</v>
+        <v>114.374945260701</v>
       </c>
       <c r="S14">
-        <v>6.143904943083629E-05</v>
+        <v>9.808372740646887E-05</v>
       </c>
       <c r="T14">
-        <v>6.143904943083629E-05</v>
+        <v>9.808372740646886E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H15">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>46.17109453003688</v>
+        <v>49.97149491201588</v>
       </c>
       <c r="R15">
-        <v>415.539850770332</v>
+        <v>449.743454208143</v>
       </c>
       <c r="S15">
-        <v>0.0004385081620145388</v>
+        <v>0.0003856833702944921</v>
       </c>
       <c r="T15">
-        <v>0.000438508162014539</v>
+        <v>0.0003856833702944921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H16">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>45.15090889340533</v>
+        <v>46.25317962409667</v>
       </c>
       <c r="R16">
-        <v>406.358180040648</v>
+        <v>416.27861661687</v>
       </c>
       <c r="S16">
-        <v>0.000428818988886059</v>
+        <v>0.0003569851619541731</v>
       </c>
       <c r="T16">
-        <v>0.0004288189888860591</v>
+        <v>0.0003569851619541732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H17">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>13.17023743208355</v>
+        <v>12.01372283538834</v>
       </c>
       <c r="R17">
-        <v>118.532136888752</v>
+        <v>108.123505518495</v>
       </c>
       <c r="S17">
-        <v>0.0001250838142006989</v>
+        <v>9.272272364664297E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001250838142006989</v>
+        <v>9.272272364664296E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H18">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>19.60026575990977</v>
+        <v>23.14864796878989</v>
       </c>
       <c r="R18">
-        <v>176.402391839188</v>
+        <v>208.337831719109</v>
       </c>
       <c r="S18">
-        <v>0.0001861527564130646</v>
+        <v>0.0001786628273195173</v>
       </c>
       <c r="T18">
-        <v>0.0001861527564130646</v>
+        <v>0.0001786628273195173</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H19">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>51.59326053748222</v>
+        <v>62.72249727346311</v>
       </c>
       <c r="R19">
-        <v>464.33934483734</v>
+        <v>564.502475461168</v>
       </c>
       <c r="S19">
-        <v>0.0004900049713118744</v>
+        <v>0.0004840964670820663</v>
       </c>
       <c r="T19">
-        <v>0.0004900049713118746</v>
+        <v>0.0004840964670820663</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H20">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>867.526326300035</v>
+        <v>843.110798195603</v>
       </c>
       <c r="R20">
-        <v>7807.736936700314</v>
+        <v>7587.997183760426</v>
       </c>
       <c r="S20">
-        <v>0.008239297307486843</v>
+        <v>0.006507186041808205</v>
       </c>
       <c r="T20">
-        <v>0.008239297307486843</v>
+        <v>0.006507186041808205</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H21">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>6191.784839921722</v>
+        <v>3315.267708293818</v>
       </c>
       <c r="R21">
-        <v>55726.0635592955</v>
+        <v>29837.40937464436</v>
       </c>
       <c r="S21">
-        <v>0.05880623401676571</v>
+        <v>0.02558745991919086</v>
       </c>
       <c r="T21">
-        <v>0.05880623401676572</v>
+        <v>0.02558745991919086</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H22">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>6054.972619568321</v>
+        <v>3068.582860762277</v>
       </c>
       <c r="R22">
-        <v>54494.75357611488</v>
+        <v>27617.24574686049</v>
       </c>
       <c r="S22">
-        <v>0.05750686531219083</v>
+        <v>0.02368352961724446</v>
       </c>
       <c r="T22">
-        <v>0.05750686531219083</v>
+        <v>0.02368352961724446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H23">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>1766.197602638453</v>
+        <v>797.0285348213184</v>
       </c>
       <c r="R23">
-        <v>15895.77842374608</v>
+        <v>7173.256813391865</v>
       </c>
       <c r="S23">
-        <v>0.0167743925581756</v>
+        <v>0.006151520023005176</v>
       </c>
       <c r="T23">
-        <v>0.0167743925581756</v>
+        <v>0.006151520023005176</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H24">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>2628.497973157086</v>
+        <v>1535.754838567716</v>
       </c>
       <c r="R24">
-        <v>23656.48175841377</v>
+        <v>13821.79354710944</v>
       </c>
       <c r="S24">
-        <v>0.02496405655530241</v>
+        <v>0.01185305949177128</v>
       </c>
       <c r="T24">
-        <v>0.02496405655530241</v>
+        <v>0.01185305949177128</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H25">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>6918.925611137312</v>
+        <v>4161.209708862615</v>
       </c>
       <c r="R25">
-        <v>62270.33050023581</v>
+        <v>37450.88737976353</v>
       </c>
       <c r="S25">
-        <v>0.06571222501301875</v>
+        <v>0.03211649737199251</v>
       </c>
       <c r="T25">
-        <v>0.06571222501301877</v>
+        <v>0.03211649737199251</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H26">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>8.023009474036222</v>
+        <v>22.23861511709</v>
       </c>
       <c r="R26">
-        <v>72.207085266326</v>
+        <v>200.14753605381</v>
       </c>
       <c r="S26">
-        <v>7.619821825961044E-05</v>
+        <v>0.0001716391323522106</v>
       </c>
       <c r="T26">
-        <v>7.619821825961044E-05</v>
+        <v>0.0001716391323522106</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H27">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>57.26252555787578</v>
+        <v>87.44635074375888</v>
       </c>
       <c r="R27">
-        <v>515.3627300208821</v>
+        <v>787.0171566938301</v>
       </c>
       <c r="S27">
-        <v>0.0005438485938070874</v>
+        <v>0.000674916836772427</v>
       </c>
       <c r="T27">
-        <v>0.0005438485938070875</v>
+        <v>0.0006749168367724271</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H28">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>55.99726627203867</v>
+        <v>80.93957916496667</v>
       </c>
       <c r="R28">
-        <v>503.975396448348</v>
+        <v>728.4562124847001</v>
       </c>
       <c r="S28">
-        <v>0.0005318318432935531</v>
+        <v>0.0006246971345869403</v>
       </c>
       <c r="T28">
-        <v>0.0005318318432935532</v>
+        <v>0.0006246971345869406</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H29">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>16.33405196983911</v>
+        <v>21.02310972788334</v>
       </c>
       <c r="R29">
-        <v>147.006467728552</v>
+        <v>189.20798755095</v>
       </c>
       <c r="S29">
-        <v>0.0001551320188626766</v>
+        <v>0.0001622577797241622</v>
       </c>
       <c r="T29">
-        <v>0.0001551320188626766</v>
+        <v>0.0001622577797241622</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H30">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>24.30873104573756</v>
+        <v>40.50838969469889</v>
       </c>
       <c r="R30">
-        <v>218.778579411638</v>
+        <v>364.57550725229</v>
       </c>
       <c r="S30">
-        <v>0.0002308712210588268</v>
+        <v>0.0003126464855646617</v>
       </c>
       <c r="T30">
-        <v>0.0002308712210588268</v>
+        <v>0.0003126464855646617</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H31">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>63.98722902745445</v>
+        <v>109.7596440882311</v>
       </c>
       <c r="R31">
-        <v>575.8850612470901</v>
+        <v>987.8367967940801</v>
       </c>
       <c r="S31">
-        <v>0.0006077162016373361</v>
+        <v>0.0008471323407235883</v>
       </c>
       <c r="T31">
-        <v>0.0006077162016373362</v>
+        <v>0.0008471323407235883</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H32">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I32">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J32">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>7.468352343983112</v>
+        <v>8.762263294726001</v>
       </c>
       <c r="R32">
-        <v>67.21517109584801</v>
+        <v>78.860369652534</v>
       </c>
       <c r="S32">
-        <v>7.093038389000026E-05</v>
+        <v>6.7627739471629E-05</v>
       </c>
       <c r="T32">
-        <v>7.093038389000027E-05</v>
+        <v>6.7627739471629E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H33">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I33">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J33">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>53.30377813419289</v>
+        <v>34.45484106566244</v>
       </c>
       <c r="R33">
-        <v>479.7340032077361</v>
+        <v>310.093569590962</v>
       </c>
       <c r="S33">
-        <v>0.0005062505451944505</v>
+        <v>0.0002659247886932924</v>
       </c>
       <c r="T33">
-        <v>0.0005062505451944508</v>
+        <v>0.0002659247886932924</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H34">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I34">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J34">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>52.12599039958933</v>
+        <v>31.89110022695334</v>
       </c>
       <c r="R34">
-        <v>469.1339135963041</v>
+        <v>287.01990204258</v>
       </c>
       <c r="S34">
-        <v>0.0004950645523129458</v>
+        <v>0.0002461376638739147</v>
       </c>
       <c r="T34">
-        <v>0.0004950645523129461</v>
+        <v>0.0002461376638739147</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H35">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I35">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J35">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>15.20482503609956</v>
+        <v>8.283340565036669</v>
       </c>
       <c r="R35">
-        <v>136.843425324896</v>
+        <v>74.55006508533</v>
       </c>
       <c r="S35">
-        <v>0.0001444072302855008</v>
+        <v>6.393138152151282E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001444072302855008</v>
+        <v>6.393138152151282E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H36">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I36">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J36">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>22.62818822191378</v>
+        <v>15.96075898977845</v>
       </c>
       <c r="R36">
-        <v>203.653693997224</v>
+        <v>143.646830908006</v>
       </c>
       <c r="S36">
-        <v>0.0002149103314077861</v>
+        <v>0.0001231862150706977</v>
       </c>
       <c r="T36">
-        <v>0.0002149103314077862</v>
+        <v>0.0001231862150706977</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H37">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I37">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J37">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>59.56358065370223</v>
+        <v>43.24652841792356</v>
       </c>
       <c r="R37">
-        <v>536.0722258833201</v>
+        <v>389.218755761312</v>
       </c>
       <c r="S37">
-        <v>0.0005657027744591967</v>
+        <v>0.0003337796250267996</v>
       </c>
       <c r="T37">
-        <v>0.0005657027744591969</v>
+        <v>0.0003337796250267996</v>
       </c>
     </row>
   </sheetData>
